--- a/output/greedy_runtime.xlsx
+++ b/output/greedy_runtime.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="runtime_naive" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="greedy_runtime" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,8 +448,10 @@
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0004780292510986328</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.000431060791015625   1478.7844496356363</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -459,8 +461,10 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0008180141448974609</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0017931461334228516   1586.6035551964073</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -470,8 +474,10 @@
       <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.0008251667022705078</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0010921955108642578   2700.1695782419783</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -481,8 +487,10 @@
       <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0007081031799316406</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0009570121765136719   2304.1943061377356</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -492,8 +500,10 @@
       <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.0008959770202636719</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.0009441375732421875   2456.983204401306</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -503,8 +513,10 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.0008521080017089844</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.001055002212524414   3115.6124635030487</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -514,8 +526,10 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.0008990764617919922</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0008959770202636719   3506.6193497047925</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -525,8 +539,10 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.001157999038696289</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.001039743423461914   3058.6771489783328</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -536,8 +552,140 @@
       <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.0008656978607177734</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0011591911315917969   2949.182516313036</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0007276535034179688   2614.7657636059994</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.0006642341613769531   3440.302738668852</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.0023970603942871094   4064.985423171131</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.0012159347534179688   4610.146638695583</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.0018970966339111328   4460.684505594079</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.0012981891632080078   6986.446840855578</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.002807140350341797   8367.502439442946</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>128</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.007539987564086914   9836.614937019467</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>256</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.012941122055053711   15922.881833623529</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>512</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.05826616287231445   21238.789086831857</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/greedy_runtime.xlsx
+++ b/output/greedy_runtime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.000431060791015625   1478.7844496356363</t>
+          <t>0.00016326904296875   1478.7844496356363</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0017931461334228516   1586.6035551964073</t>
+          <t>0.00015935897827148437   1586.6035551964073</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0010921955108642578   2700.1695782419783</t>
+          <t>0.006775999069213867   2700.1695782419783</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0009570121765136719   2304.1943061377356</t>
+          <t>0.0003146648406982422   2304.1943061377356</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0009441375732421875   2456.983204401306</t>
+          <t>0.00023450851440429688   2456.983204401306</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.001055002212524414   3115.6124635030487</t>
+          <t>0.00021653175354003907   3115.6124635030487</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0008959770202636719   3506.6193497047925</t>
+          <t>0.00021181106567382812   3506.6193497047925</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.001039743423461914   3058.6771489783328</t>
+          <t>0.0002029895782470703   3058.6771489783328</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0011591911315917969   2949.182516313036</t>
+          <t>0.00019321441650390624   2949.182516313036</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0007276535034179688   2614.7657636059994</t>
+          <t>0.00019578933715820314   2614.7657636059994</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0006642341613769531   3440.302738668852</t>
+          <t>0.00031652450561523435   3440.302738668852</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0023970603942871094   4064.985423171131</t>
+          <t>0.008004188537597656   4064.985423171131</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0012159347534179688   4610.146638695583</t>
+          <t>0.00044460296630859374   4610.146638695583</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0018970966339111328   4460.684505594079</t>
+          <t>0.0008135795593261719   4460.684505594079</t>
         </is>
       </c>
     </row>
@@ -628,11 +628,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0012981891632080078   6986.446840855578</t>
+          <t>0.00034894943237304685   4463.145865074675</t>
         </is>
       </c>
     </row>
@@ -641,11 +641,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.002807140350341797   8367.502439442946</t>
+          <t>0.00032725334167480467   5167.999294453767</t>
         </is>
       </c>
     </row>
@@ -654,11 +654,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.007539987564086914   9836.614937019467</t>
+          <t>0.0004129886627197266   4138.322859538551</t>
         </is>
       </c>
     </row>
@@ -667,11 +667,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.012941122055053711   15922.881833623529</t>
+          <t>0.0003777980804443359   3944.710906372339</t>
         </is>
       </c>
     </row>
@@ -680,11 +680,89 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>32</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.007402944564819336   6986.446840855579</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>64</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.0012202262878417969   8367.502439442946</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>128</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.0037877559661865234   9836.614937019467</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>256</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.017383575439453125   15922.88183362353</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>512</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.05826616287231445   21238.789086831857</t>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.05567178726196289   21238.789086831857</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.20291357040405272   29469.13265743031</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.8178069114685058   41276.60014722063</t>
         </is>
       </c>
     </row>
